--- a/seminar1.xlsx
+++ b/seminar1.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
     <sheet name="cgroups" sheetId="2" r:id="rId2"/>
+    <sheet name="LXC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -292,10 +293,187 @@
     <t>echo "2653" &gt; cgroup.procs</t>
   </si>
   <si>
-    <t>добавляем процесс 2653 в список процессов Example</t>
-  </si>
-  <si>
     <t>можно запустить какой нибудь скрипт в bash (2653),  допустим бесконечный цикл и посмотреть через программу мониторинга  top врямй cpu</t>
+  </si>
+  <si>
+    <t>Пример с памятью для cgroup Example</t>
+  </si>
+  <si>
+    <t>переходим а Example</t>
+  </si>
+  <si>
+    <t>смотрим его номер процесса, допустим 2668</t>
+  </si>
+  <si>
+    <t>добавляем процесс 2668 в список процессов Example</t>
+  </si>
+  <si>
+    <t>cat cgroup.procs</t>
+  </si>
+  <si>
+    <t>проверяем, что 2668 в списке cgroup.procs</t>
+  </si>
+  <si>
+    <t>echo "200M" &gt; memory.max</t>
+  </si>
+  <si>
+    <t>ставим ограничение на потребление памяти в 200M</t>
+  </si>
+  <si>
+    <t>cat memory.max</t>
+  </si>
+  <si>
+    <t>переходим в корень и запускаем генерацию нулей  на 500M</t>
+  </si>
+  <si>
+    <t>&lt;/dev/zero head -c 500M | tail</t>
+  </si>
+  <si>
+    <t>Прооверяем</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>увидем процесс с tail который не сможет взять памяти больше ограниченной</t>
+  </si>
+  <si>
+    <t>sudo apt update</t>
+  </si>
+  <si>
+    <t>обновим пакеты</t>
+  </si>
+  <si>
+    <t>apt install lxc</t>
+  </si>
+  <si>
+    <t>установим lxc</t>
+  </si>
+  <si>
+    <t>apt install lxc-templates</t>
+  </si>
+  <si>
+    <t>устанавливаем templates</t>
+  </si>
+  <si>
+    <t>устанавливаем installer</t>
+  </si>
+  <si>
+    <t>lxd init</t>
+  </si>
+  <si>
+    <t>apt install lxd-installer</t>
+  </si>
+  <si>
+    <t>LXD clustering - no</t>
+  </si>
+  <si>
+    <t>new storage pool - yes</t>
+  </si>
+  <si>
+    <t>инициализируем</t>
+  </si>
+  <si>
+    <t>name of the new storage pool - default</t>
+  </si>
+  <si>
+    <t>name of the new storage backend - zfs</t>
+  </si>
+  <si>
+    <t>create new ZFX pool - yes</t>
+  </si>
+  <si>
+    <t>existing empty block device - no</t>
+  </si>
+  <si>
+    <t>size of the new loop device - 5 GiB</t>
+  </si>
+  <si>
+    <t>MAAS - no</t>
+  </si>
+  <si>
+    <t>new local network bridge - yes</t>
+  </si>
+  <si>
+    <t>new bridge - lxdbr0</t>
+  </si>
+  <si>
+    <t>IPv4 - auto</t>
+  </si>
+  <si>
+    <t>IPv6 - auto</t>
+  </si>
+  <si>
+    <t>LXD available over the network - no</t>
+  </si>
+  <si>
+    <t>cashed images - yes</t>
+  </si>
+  <si>
+    <t>printed YAML config - no</t>
+  </si>
+  <si>
+    <t>lxc storage list</t>
+  </si>
+  <si>
+    <t>lxc network list</t>
+  </si>
+  <si>
+    <t>lxc remote list</t>
+  </si>
+  <si>
+    <t>lxc image -c dasut list ubuntu: | head -n 11</t>
+  </si>
+  <si>
+    <t>найдем ubuntu, получаем список</t>
+  </si>
+  <si>
+    <t xml:space="preserve">или </t>
+  </si>
+  <si>
+    <t>lxc image -c dasut list ubuntu: | tail</t>
+  </si>
+  <si>
+    <t>Перед созданием контейнера с ubuntu, посмотрим конфигурацию</t>
+  </si>
+  <si>
+    <t>cat /etc/default/lxc-net</t>
+  </si>
+  <si>
+    <t>cat /etc/lxc/default.conf</t>
+  </si>
+  <si>
+    <t>создаем контейнер</t>
+  </si>
+  <si>
+    <t>lxc-create -n test123 -t ubuntu</t>
+  </si>
+  <si>
+    <t>lxc-ls -f</t>
+  </si>
+  <si>
+    <t>список контейнеров</t>
+  </si>
+  <si>
+    <t>lxc-start -d -n test123</t>
+  </si>
+  <si>
+    <t>запускаем контейнер</t>
+  </si>
+  <si>
+    <t>проверям</t>
+  </si>
+  <si>
+    <t>lxc-attach -n test123</t>
+  </si>
+  <si>
+    <t>подключаемся к контейнеру</t>
+  </si>
+  <si>
+    <t>lxc-stop -d -n test123</t>
+  </si>
+  <si>
+    <t>остановить контейнер</t>
   </si>
 </sst>
 </file>
@@ -640,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -779,7 +957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -824,7 +1002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -892,12 +1070,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -968,7 +1146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1017,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,13 +1285,334 @@
       <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/seminar1.xlsx
+++ b/seminar1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906CBF4E-6B79-4F65-B8F8-5466D1E900E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="188">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -474,13 +480,124 @@
   </si>
   <si>
     <t>остановить контейнер</t>
+  </si>
+  <si>
+    <t>рассмотрим конфигурационный файл контейнера</t>
+  </si>
+  <si>
+    <t>nano /var/lib/lxc/test123/config</t>
+  </si>
+  <si>
+    <t>рассмотрим группы, созданные lxc</t>
+  </si>
+  <si>
+    <t>ls /sys/fs/cgroup/</t>
+  </si>
+  <si>
+    <t>для примера, ограничим размер памяти для контейнера</t>
+  </si>
+  <si>
+    <t>открываем config</t>
+  </si>
+  <si>
+    <t>lxc.cgroup2.memory.max = 256M</t>
+  </si>
+  <si>
+    <t>сохранякм config</t>
+  </si>
+  <si>
+    <t>стартуем</t>
+  </si>
+  <si>
+    <t>cd /sys/fs/cgroup/</t>
+  </si>
+  <si>
+    <t>переходим в группы</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">переходим в гпуппу для параметров </t>
+  </si>
+  <si>
+    <t>cd lxc.payload.test123</t>
+  </si>
+  <si>
+    <t>увидим наше ограничение по памяти</t>
+  </si>
+  <si>
+    <t>подключимся к контейнеру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free -m </t>
+  </si>
+  <si>
+    <t>сколько памяти и увидим 256M</t>
+  </si>
+  <si>
+    <t>настроим запуск контейнера при перезагрузки</t>
+  </si>
+  <si>
+    <t>выходим в корень</t>
+  </si>
+  <si>
+    <t>lxc.start.auto = 1</t>
+  </si>
+  <si>
+    <t>устанавливаем автозапуск</t>
+  </si>
+  <si>
+    <t>перезапускаем контейнер</t>
+  </si>
+  <si>
+    <t>создадим новый контейнер и пропингуем новый и старый</t>
+  </si>
+  <si>
+    <t>lxc-create -n test124 -t ubuntu</t>
+  </si>
+  <si>
+    <t>lxc-start -d -n test124</t>
+  </si>
+  <si>
+    <t>запустим</t>
+  </si>
+  <si>
+    <t>заходим в test123</t>
+  </si>
+  <si>
+    <t>ping [ip test123]</t>
+  </si>
+  <si>
+    <t>пингуем ip контейнера test124</t>
+  </si>
+  <si>
+    <t>задать ip контейнера</t>
+  </si>
+  <si>
+    <t>lxc-stop -d -n test124</t>
+  </si>
+  <si>
+    <t>lxc.net.0.ipv4.address = 10.0.3.2/24</t>
+  </si>
+  <si>
+    <t>сохраняяем</t>
+  </si>
+  <si>
+    <t>lxc-execute -n test123 ls /</t>
+  </si>
+  <si>
+    <t>запуск комманды ls внутри контейнера только при остановленном контейнере</t>
+  </si>
+  <si>
+    <t>lxc-start --logfile=/var/log/lxc.log -d -n test_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +605,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,8 +641,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -818,46 +953,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -865,37 +1000,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -903,42 +1038,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -949,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -957,7 +1092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -965,7 +1100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -973,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -981,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -989,7 +1124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -997,17 +1132,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1015,7 +1150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1023,17 +1158,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1041,7 +1176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1049,7 +1184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1057,7 +1192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1065,22 +1200,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1096,7 +1231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1104,7 +1239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1120,12 +1255,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1133,7 +1268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1141,17 +1276,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1159,7 +1294,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1167,12 +1302,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1180,7 +1315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1194,44 +1329,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1239,7 +1374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1247,7 +1382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1255,12 +1390,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1268,7 +1403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1276,27 +1411,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1304,7 +1439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1312,7 +1447,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1320,7 +1455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1328,7 +1463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1336,7 +1471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1344,7 +1479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1352,7 +1487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1360,17 +1495,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1384,20 +1519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1405,7 +1540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1413,7 +1548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1421,7 +1556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1429,7 +1564,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1437,102 +1572,102 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -1540,42 +1675,42 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -1583,7 +1718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -1591,7 +1726,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -1599,7 +1734,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -1607,15 +1742,272 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>149</v>
       </c>
       <c r="B39" t="s">
         <v>150</v>
       </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/seminar1.xlsx
+++ b/seminar1.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906CBF4E-6B79-4F65-B8F8-5466D1E900E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
     <sheet name="cgroups" sheetId="2" r:id="rId2"/>
     <sheet name="LXC" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="189">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -591,13 +586,16 @@
   </si>
   <si>
     <t>lxc-start --logfile=/var/log/lxc.log -d -n test_01</t>
+  </si>
+  <si>
+    <t>lxc-stop -n test123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,46 +951,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1000,37 +998,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1038,42 +1036,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1132,17 +1130,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1158,17 +1156,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1176,7 +1174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1200,22 +1198,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1223,7 +1221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1231,7 +1229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1255,12 +1253,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1276,17 +1274,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1302,12 +1300,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1329,44 +1327,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1382,7 +1380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1390,12 +1388,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1411,27 +1409,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1447,7 +1445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1455,7 +1453,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1463,7 +1461,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1479,7 +1477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1495,17 +1493,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1519,20 +1517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1540,7 +1538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1572,102 +1570,102 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -1675,334 +1673,334 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>142</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>147</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B83" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>185</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2010,4 +2008,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>